--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/58.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/58.xlsx
@@ -479,13 +479,13 @@
         <v>-6.888401947765535</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.686523080176029</v>
+        <v>-8.618141982433693</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.071077283725618</v>
+        <v>-3.06085219520623</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.445863911580625</v>
+        <v>-5.43360951612077</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.139079503875531</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.936428956818895</v>
+        <v>-8.862261061220519</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.164634879832592</v>
+        <v>-3.155326252512125</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.377967229043434</v>
+        <v>-5.360148604875845</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.415080778263441</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.754396761461416</v>
+        <v>-9.682166526683613</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.04409404756882</v>
+        <v>-3.040415110470295</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.25095879917585</v>
+        <v>-5.235418235702721</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.832983929178725</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.51935383189779</v>
+        <v>-10.45296276418739</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.952225358528429</v>
+        <v>-2.943374961807422</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.459218060479186</v>
+        <v>-5.442499189750302</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.379620164955128</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.30046680404085</v>
+        <v>-11.23145727576211</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.802789813892967</v>
+        <v>-2.79014264934786</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.012469410610968</v>
+        <v>-4.995632709156508</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.058593228045671</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.96131388227981</v>
+        <v>-11.89367904579946</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.770491102782429</v>
+        <v>-2.759873245177789</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.151300189944631</v>
+        <v>-5.134803888364056</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.84624427277063</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.4604841127263</v>
+        <v>-12.39109490766515</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.650316854998225</v>
+        <v>-2.63958116666801</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.708191200266412</v>
+        <v>-4.694876328276377</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.720078731627655</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.43804708900946</v>
+        <v>-13.36799017650339</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.393236396398092</v>
+        <v>-2.3858654298982</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.622174770596271</v>
+        <v>-4.613075620121272</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.637303928542251</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.18166370581382</v>
+        <v>-14.11573086870289</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.371162773806942</v>
+        <v>-2.361199531344389</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.251963723140784</v>
+        <v>-4.245312833297187</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.566245327808379</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.87835750923343</v>
+        <v>-14.81279125660207</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.19661619232105</v>
+        <v>-2.184060673895835</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.040287370795757</v>
+        <v>-4.030140836093419</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.474107151147633</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.53862852614736</v>
+        <v>-15.47712088739693</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.183550074085007</v>
+        <v>-2.168166618245979</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.520719332521858</v>
+        <v>-3.513426919839016</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.33244785410142</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.51107241201941</v>
+        <v>-16.4479413277166</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.017736058594547</v>
+        <v>-2.00380584837095</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.882796876558755</v>
+        <v>-2.872493234222317</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.128794454775328</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.14887703725693</v>
+        <v>-17.09174222765564</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.736526485857113</v>
+        <v>-1.721797645160171</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.5198127802719</v>
+        <v>-2.509797168597979</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.859804859949131</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.0535551636202</v>
+        <v>-17.99744155364057</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.573173823300897</v>
+        <v>-1.552697461656437</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.927530092015054</v>
+        <v>-1.91339040494599</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.532145916159809</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.96835364008013</v>
+        <v>-18.91462282921768</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.408079884466731</v>
+        <v>-1.384906508436876</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.567256102416436</v>
+        <v>-1.563839011374746</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.170025035028139</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.75914182402322</v>
+        <v>-19.7047563980187</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.166212681768683</v>
+        <v>-1.138011861447605</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.036598883635595</v>
+        <v>-1.036546514424228</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.804322895453311</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.74228212131696</v>
+        <v>-20.69162800162232</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.071332763074694</v>
+        <v>-1.039885051648868</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6807108154889555</v>
+        <v>-0.6741122948567256</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.467911684851198</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.58414337864563</v>
+        <v>-21.53166942885599</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9216091877767152</v>
+        <v>-0.8880798001990547</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3062840465184317</v>
+        <v>-0.3067815540264173</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.19730079132413</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.23328593814409</v>
+        <v>-22.18056323460046</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6656939441294958</v>
+        <v>-0.6309993415989217</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06329857040065347</v>
+        <v>0.07187402876198404</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.020004102988335</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.86174265915263</v>
+        <v>-22.8116253238745</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.364152025078861</v>
+        <v>-0.3297585455136466</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3813760679403883</v>
+        <v>0.3882757115379779</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.9536247388492666</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.49262145618688</v>
+        <v>-23.44200661340077</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.09841755430034693</v>
+        <v>-0.05845984602739897</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3494832182179436</v>
+        <v>0.3521933249061809</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.009251245967157</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.99816763811729</v>
+        <v>-23.95315630094744</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01172798950709448</v>
+        <v>0.05810092617248821</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6107793983331125</v>
+        <v>0.6113423673553067</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.181348183345428</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.38727087857339</v>
+        <v>-24.33594905143383</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.004715942862113464</v>
+        <v>0.03855411802979119</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5417698700543744</v>
+        <v>0.5426339620419283</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.453121303742971</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.65644862499928</v>
+        <v>-24.60960436543158</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2860379186469391</v>
+        <v>0.3249613349953906</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5321732120713891</v>
+        <v>0.5315971507463532</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.800575045059639</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.66858518973356</v>
+        <v>-24.62703022051392</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2989992984602479</v>
+        <v>0.337896530203016</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3736123323552447</v>
+        <v>0.3716223023233023</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.188689400971266</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.64317302991777</v>
+        <v>-24.60379138296986</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1164533199380613</v>
+        <v>0.1565550435422682</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3482394494479796</v>
+        <v>0.3480561572081954</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.581118380521371</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.75702369542942</v>
+        <v>-24.71630663359165</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2345066146619053</v>
+        <v>0.2723433698744936</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05916140270266802</v>
+        <v>0.06001240238738022</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.944580465604923</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.80168154042255</v>
+        <v>-24.76155363221266</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1846249408349289</v>
+        <v>0.2186649282234167</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.03654333107034954</v>
+        <v>-0.03474968558103306</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.248438612173345</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.57502759362658</v>
+        <v>-24.535371008319</v>
       </c>
       <c r="F30" t="n">
-        <v>0.05896501816004213</v>
+        <v>0.0932013900911558</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2294322288374997</v>
+        <v>-0.2308592898472479</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.472744851822593</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.10703013624624</v>
+        <v>-24.06212353749912</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05862461828615725</v>
+        <v>0.09156485223594005</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6951778101290629</v>
+        <v>-0.6899801659008976</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.607079099453465</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.18763944484275</v>
+        <v>-24.14650342931405</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1225936099708308</v>
+        <v>0.1544602750875921</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7550358187214344</v>
+        <v>-0.7460675912748521</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.648999313845483</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.76978550734622</v>
+        <v>-23.72311144771547</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04208903979705723</v>
+        <v>0.06757975342989789</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.22011369256807</v>
+        <v>-1.208671019884401</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.605626571016226</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.20260076363697</v>
+        <v>-23.16243357851855</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1115229494449147</v>
+        <v>-0.08948860376228976</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.292906896368067</v>
+        <v>-1.281464223684398</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.488183439292691</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.85981809063489</v>
+        <v>-22.82020078223583</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3046998778745829</v>
+        <v>-0.2806100406458069</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.31644685687749</v>
+        <v>-1.304022261480692</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.30842414956158</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.13369279042708</v>
+        <v>-22.09453371262748</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4333579379002249</v>
+        <v>-0.4123055149307294</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.521079550293668</v>
+        <v>-1.506651832562086</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.083661880896409</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.32516453613345</v>
+        <v>-21.28171118300176</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3683677465938968</v>
+        <v>-0.348951861479617</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.643976997068951</v>
+        <v>-1.635048046530894</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.835050665924053</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.94718975309281</v>
+        <v>-20.90731059863692</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4253978177724555</v>
+        <v>-0.4040966410489672</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.894890981030631</v>
+        <v>-1.884351677243042</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.58430315538589</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.29345179529691</v>
+        <v>-20.25348099472112</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.279313902664476</v>
+        <v>-0.2550931424072828</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.044313433363251</v>
+        <v>-2.036850820743467</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.353087407798605</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.98343915630767</v>
+        <v>-19.94998832254707</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5598557679569822</v>
+        <v>-0.5360801459964076</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.269370119212522</v>
+        <v>-2.261959875804105</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.146671489317025</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.44952195411924</v>
+        <v>-19.41465715165173</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2838307471448715</v>
+        <v>-0.2580389105466712</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.112694531105586</v>
+        <v>-2.100976920062241</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.954253233106503</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.89434285211585</v>
+        <v>-18.85633589696632</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.02646225788222046</v>
+        <v>0.001633824016123679</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.090005570280875</v>
+        <v>-2.072278592233177</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.765791311216629</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.99314727830848</v>
+        <v>-17.95278370864744</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.03618983889362293</v>
+        <v>-0.007845003241285994</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.984808916947606</v>
+        <v>-1.960431049056312</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.573862741431207</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.6595554019013</v>
+        <v>-17.6173850944481</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01230405083213042</v>
+        <v>0.03814825664169769</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.185684119448209</v>
+        <v>-2.162039420516051</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.374356434423932</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.14697865334488</v>
+        <v>-17.10726969882593</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.01795226103509852</v>
+        <v>0.008454913796662961</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.225183597121696</v>
+        <v>-2.203960974215259</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.169489179042167</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.76807431680249</v>
+        <v>-16.73036848461832</v>
       </c>
       <c r="F46" t="n">
-        <v>0.001018485782562554</v>
+        <v>0.02684959928928808</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.161895405184793</v>
+        <v>-2.143212689029649</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.9623746853560898</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.09649155023331</v>
+        <v>-16.06211116297094</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00979032868651902</v>
+        <v>0.03276732017374827</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.45776835710496</v>
+        <v>-2.432801335585788</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.7574736577732059</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.44287142316298</v>
+        <v>-15.4125365574787</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.01879016841696899</v>
+        <v>0.001908762375799926</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.391796243085502</v>
+        <v>-2.366344806361187</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.562372269580109</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.90671543718861</v>
+        <v>-14.87518917194573</v>
       </c>
       <c r="F49" t="n">
-        <v>0.131954606502665</v>
+        <v>0.1528499218380598</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.574054190945171</v>
+        <v>-2.547228062422474</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.3839322868294728</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.20406463597601</v>
+        <v>-14.17770983035562</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2735609540387741</v>
+        <v>0.3000204980819025</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.492371313515642</v>
+        <v>-2.456472219123629</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2297190506453935</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.4318151528568</v>
+        <v>-13.41420600553468</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2731289080449972</v>
+        <v>0.293971854169025</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.560529842109668</v>
+        <v>-2.521593333458374</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1095925673543005</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.84283172491607</v>
+        <v>-12.82721260762589</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3549296162001016</v>
+        <v>0.3789670842175107</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.572810422175207</v>
+        <v>-2.531896975794813</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.0317887744129568</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.19354515008635</v>
+        <v>-12.17626331033527</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4075475813209987</v>
+        <v>0.4276966353944151</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.592409599529271</v>
+        <v>-2.551077199457942</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.004930178914602204</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.81584530540539</v>
+        <v>-11.79845872723158</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2957785919611833</v>
+        <v>0.3187555834484125</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.700159251916677</v>
+        <v>-2.655684699163333</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.03715371307288117</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.3598796743366</v>
+        <v>-11.3439725263839</v>
       </c>
       <c r="F55" t="n">
-        <v>0.04744379165932319</v>
+        <v>0.06942576813058127</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.170919185196621</v>
+        <v>-3.119453342725795</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1308638320619705</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.91409985487867</v>
+        <v>-10.89863784522259</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1381734503524849</v>
+        <v>0.161490841713599</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.24290066622043</v>
+        <v>-3.188187932644857</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2869601366133572</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.15729928911269</v>
+        <v>-10.1426490022328</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07354984352572497</v>
+        <v>0.09762658845165921</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.60948514578876</v>
+        <v>-3.553934504831317</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5034589526109298</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.856948769620656</v>
+        <v>-9.840269175800296</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1039294137967136</v>
+        <v>-0.07688071612570756</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.640631734249227</v>
+        <v>-3.587738830768653</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.7746437305360835</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.308472926672225</v>
+        <v>-9.296061423578269</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.01530761586106985</v>
+        <v>0.01446428080101523</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.925507151782344</v>
+        <v>-3.873295048049541</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.098218141389437</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.940867247482242</v>
+        <v>-8.932278696818068</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1501190582223232</v>
+        <v>-0.1224942992262812</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.836531861669974</v>
+        <v>-3.785812280461127</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.470688495189929</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.408285460183667</v>
+        <v>-8.405719368826688</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1745231107193006</v>
+        <v>-0.1478148129221794</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.24094000414805</v>
+        <v>-4.187759070004959</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.884148322510737</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.900199371501961</v>
+        <v>-7.893836512320883</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1194176080584756</v>
+        <v>-0.09016940351005952</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.19367679088942</v>
+        <v>-4.145313824192083</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.33225515767494</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.422945656012521</v>
+        <v>-7.409120184211658</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1728472959555596</v>
+        <v>-0.1478148129221794</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.197578297136253</v>
+        <v>-4.148246500028629</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.80394501592279</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.062540743385486</v>
+        <v>-7.059136744646637</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3318925908768479</v>
+        <v>-0.3057603544047627</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.441160591506567</v>
+        <v>-4.398086915157289</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-3.283006794467499</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.693966233785214</v>
+        <v>-6.684173191259602</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2755825963545841</v>
+        <v>-0.2517284205769592</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.725577778440225</v>
+        <v>-4.682883778873355</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.756126747642491</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.442672573041123</v>
+        <v>-6.435655098717958</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3919600763146871</v>
+        <v>-0.3693365770041845</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.720301580395009</v>
+        <v>-4.677096981017312</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.206115181297461</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.277408434270015</v>
+        <v>-6.272485728401526</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4503255623831019</v>
+        <v>-0.424415895059326</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.835238907042521</v>
+        <v>-4.793264984131948</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.61355294089783</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.000480044561826</v>
+        <v>-5.996185769229739</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.414190806539938</v>
+        <v>-0.3941726754949388</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.829779416757522</v>
+        <v>-4.792230692207451</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.964905980112007</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.865773340623305</v>
+        <v>-5.862565726427083</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6743217717021932</v>
+        <v>-0.6498522576910072</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.929320195263165</v>
+        <v>-4.893656762322304</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.246024038807365</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.631682965813244</v>
+        <v>-5.624089430165043</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6187056692305409</v>
+        <v>-0.5943408936420886</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.794626583627488</v>
+        <v>-4.761633980466338</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.446421747413817</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.509571057208465</v>
+        <v>-5.501453829446595</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7149210028143858</v>
+        <v>-0.694693394923919</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.771099715420906</v>
+        <v>-4.73942943484677</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.565673481448849</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.487130850137746</v>
+        <v>-5.480047914300372</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8101413213822595</v>
+        <v>-0.7876880220086993</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.667893092119579</v>
+        <v>-4.641250255836667</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.605313466139571</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.525072343773068</v>
+        <v>-5.513276178912673</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8654824854942356</v>
+        <v>-0.8475329382982291</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.48009710015786</v>
+        <v>-4.454514740405128</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.571269783637037</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.760642148804245</v>
+        <v>-5.750652721736008</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7582172483119739</v>
+        <v>-0.7389846554374783</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.367189080450815</v>
+        <v>-4.33983925981445</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.47659866151067</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.959723705815533</v>
+        <v>-5.953675061902655</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.086951880364874</v>
+        <v>-1.070874532475234</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.205054002058879</v>
+        <v>-4.173828859781363</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.332285135213504</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.486453233743855</v>
+        <v>-6.481478158663999</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.001315127477143</v>
+        <v>-0.982265826842432</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.033557927135109</v>
+        <v>-4.008446890284679</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.150453208133298</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.954097198947469</v>
+        <v>-6.947289201469771</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.05999482881376</v>
+        <v>-1.04088006666484</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.960175569707235</v>
+        <v>-3.928714765978567</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.945271775169796</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.533497061208056</v>
+        <v>-7.521321219565251</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.148302411481202</v>
+        <v>-1.133822324538253</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.557207580541748</v>
+        <v>-3.524882684825527</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.725319676684218</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.957321088800412</v>
+        <v>-7.947344754035017</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.114039854944405</v>
+        <v>-1.099114629704837</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.353360425296073</v>
+        <v>-3.315026162575499</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.499952323813043</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.429285513941796</v>
+        <v>-8.419976886621328</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.302464277442527</v>
+        <v>-1.283820838195909</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.986933053361844</v>
+        <v>-2.947197914237206</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.279660921812013</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.36857968901859</v>
+        <v>-9.362491768197188</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.222719060833573</v>
+        <v>-1.207505804931487</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.965998461117924</v>
+        <v>-2.923016430888537</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.068870864692889</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.19349950647007</v>
+        <v>-10.18911358501809</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.316695610631483</v>
+        <v>-1.300448062804901</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.791726817991708</v>
+        <v>-2.748103264923077</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.874332759305595</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02743992057949</v>
+        <v>-11.02325038367014</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.429184676647593</v>
+        <v>-1.409729514624788</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.416710895393307</v>
+        <v>-2.373807418980971</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.701707303680394</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.23993117905458</v>
+        <v>-12.24168554763538</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.502724141709568</v>
+        <v>-1.484997163661871</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.313294795246513</v>
+        <v>-2.268924980915903</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.549629227499492</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.12933058800156</v>
+        <v>-13.13016849538343</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.600039228732118</v>
+        <v>-1.584092803870896</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.971140552780844</v>
+        <v>-1.923078709048867</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.42126705879234</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.3174570708882</v>
+        <v>-14.32446145290853</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.812199996282289</v>
+        <v>-1.794590848960168</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.724154259671681</v>
+        <v>-1.681185321745136</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.317530539051453</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.41810078618643</v>
+        <v>-15.42823422858593</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.852720673577432</v>
+        <v>-1.835988710545706</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.308080875361627</v>
+        <v>-1.265687998760118</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.233690408996622</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.83504144583792</v>
+        <v>-16.84429770394702</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.873773096546927</v>
+        <v>-1.860890270550668</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.000372481672539</v>
+        <v>-0.9606766194564258</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.171519314407664</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.52291422049608</v>
+        <v>-18.54146601362281</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.099353474509867</v>
+        <v>-2.087884617220515</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.79778218749967</v>
+        <v>-0.7506106203609311</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.129053217487245</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.13601685362515</v>
+        <v>-20.15572076940195</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.323297314617592</v>
+        <v>-2.30962895045083</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5101835709754735</v>
+        <v>-0.4614671121014108</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.099752359696913</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.96023287007705</v>
+        <v>-21.98415250736889</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.532813436993734</v>
+        <v>-2.521017272133339</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.671611665013956</v>
+        <v>-0.6269276354151448</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.084389946253434</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.68044363275428</v>
+        <v>-23.70839569932137</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.632354215499377</v>
+        <v>-2.624590479914234</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4918019777856901</v>
+        <v>-0.4483224400483178</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.080318743984824</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.76202813846884</v>
+        <v>-25.78757122131304</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.806259274146024</v>
+        <v>-2.798168230989838</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4838549499607624</v>
+        <v>-0.4466073483760517</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.082730899093164</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.02958880605011</v>
+        <v>-28.05658513450975</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.678072537022684</v>
+        <v>-2.670989601185311</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.618509284687915</v>
+        <v>-0.5813664215259381</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.093515373568426</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.30789825426444</v>
+        <v>-30.33776179704642</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.164006449296189</v>
+        <v>-3.159659804752736</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9998880664673954</v>
+        <v>-0.9685712780699867</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.115674214146713</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.49357965987355</v>
+        <v>-32.52108658814402</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.223746627162985</v>
+        <v>-3.219242874985432</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.229474689099904</v>
+        <v>-1.192776964234546</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.147777973552425</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.71793572807713</v>
+        <v>-34.74620200991242</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.591535598592754</v>
+        <v>-3.599862303200092</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.460697849587628</v>
+        <v>-1.428791907562341</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.206684656245408</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.22148515438051</v>
+        <v>-37.25098211268292</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.837906553468355</v>
+        <v>-3.844937120094362</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.891447705383257</v>
+        <v>-1.859240640392611</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.288012480975765</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.75234512441174</v>
+        <v>-39.78639820410307</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.734150053447676</v>
+        <v>-3.739216774647424</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.368334836393129</v>
+        <v>-2.338641493548094</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.414684783527878</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.31880306586962</v>
+        <v>-42.35248956108138</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.917547031654575</v>
+        <v>-3.921095045724682</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.728962318168474</v>
+        <v>-2.703052650844698</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.568277257550096</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.56702640215366</v>
+        <v>-44.59544979162305</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.151427929619169</v>
+        <v>-4.163878709621651</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.334965739803448</v>
+        <v>-3.312695732669672</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.798314997894454</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.87148117914291</v>
+        <v>-46.89892264589917</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.294513707376393</v>
+        <v>-4.30806424081758</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.612758221499192</v>
+        <v>-3.589899060737538</v>
       </c>
     </row>
   </sheetData>
